--- a/ESPN sports website/IPL/Mumbai Indians/Ramandeep Singh.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Ramandeep Singh.xlsx
@@ -480,31 +480,31 @@
         <v>Ramandeep Singh</v>
       </c>
       <c r="C3" t="str">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="str">
         <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>233.33</v>
+        <v>216.66</v>
       </c>
       <c r="H3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I3" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>May 17, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Sunrisers won by 3 runs</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -550,31 +550,31 @@
         <v>Ramandeep Singh</v>
       </c>
       <c r="C5" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="str">
         <v>6</v>
       </c>
       <c r="E5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>216.66</v>
+        <v>233.33</v>
       </c>
       <c r="H5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I5" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>May 21, 2022</v>
+        <v>May 17, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Sunrisers won by 3 runs</v>
       </c>
     </row>
   </sheetData>
